--- a/Tugas 2/Timeline.xlsx
+++ b/Tugas 2/Timeline.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\personal\Documents\TITIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tegal-Semarang\Tugas 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -248,6 +248,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="17" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -255,9 +267,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -265,15 +274,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,10 +569,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
@@ -646,30 +646,30 @@
       <c r="B16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="18">
         <v>43891</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="14">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="18">
         <v>43922</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="18">
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="21">
         <v>43952</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="20">
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="15">
         <v>43983</v>
       </c>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="22"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -702,16 +702,16 @@
       <c r="J17" s="2">
         <v>4</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="14">
         <v>1</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="14">
         <v>2</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="14">
         <v>3</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="14">
         <v>4</v>
       </c>
       <c r="O17" s="2">
@@ -783,7 +783,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
+      <c r="J20" s="7"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -878,7 +878,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
+      <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
@@ -901,7 +901,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
+      <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="8"/>
